--- a/biology/Zoologie/Agrias_amydon/Agrias_amydon.xlsx
+++ b/biology/Zoologie/Agrias_amydon/Agrias_amydon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrias amydon est une espèce d'insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Charaxinae et du genre Agrias.
 </t>
@@ -511,19 +523,125 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Agrias amydon a été décrit par William Chapman Hewitson en 1854[1].
-Synonymes
-Agrias phalcidon Hewitson, 1855
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias amydon a été décrit par William Chapman Hewitson en 1854.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agrias phalcidon Hewitson, 1855
 Agrias pericles Bates, 1860
 Agrias anaxagoras Staudinger, 1886
 Agrias eleonora Fruhstorfer, 1895
-Agrias mapiri Fassl, 1913
-Noms vernaculaires
-Agrias amydon se nomme Amydon Agrias ou White-spotted Agrias en anglais [2].
-Sous-espèces
-Agrias amydon amydon; présent en Colombie
+Agrias mapiri Fassl, 1913</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias amydon se nomme Amydon Agrias ou White-spotted Agrias en anglais .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Agrias amydon amydon; présent en Colombie
 Agrias amydon amydonius Staudinger, 1886; présent en Colombie, au Brésil et au Pérou.
 Agrias amydon aristoxenus Niepelt, 1914; présent  en Bolivie et au Pérou.
 Agrias amydon aurantiaca Fruhstorfer, 1897; présent au Venezuela, au Brésil et au Surinam.
@@ -539,106 +657,185 @@
 Agrias amydon rubella Michael, 1930; présent au Brésil
 Agrias amydon smalli Miller &amp; Nicolay, 1971; présent à Panama.
 Agrias amydon uniformis Michael, 1929; présent au Venezuela et au Brésil
-Agrias amydon ssp, au Venezuela[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agrias_amydon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Agrias amydon ssp, au Venezuela.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrias amydon est un papillon d'une envergure d'environ 70 mm, aux ailes antérieures à bord costal bossu, bord externe concave et aux ailes postérieures à bord externe légèrement festonné[3],[4]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias amydon est un papillon d'une envergure d'environ 70 mm, aux ailes antérieures à bord costal bossu, bord externe concave et aux ailes postérieures à bord externe légèrement festonné,. 
 La face supérieure est marron à noire avec aux ailes antérieures une grande tache basodiscale orange ou rouge et aux ailes postérieures une partie basale rouge ou orange. Pour certaines sous-espèces, l'ornementation de l'aile antérieure est une bande de couleur bleue ou de couleur jaune, avec aux ailes postérieures une flaque bleue entre n2 et n6.
 Le revers est ocre avec aux ailes antérieures la même étendue orange ou rouge et des lignes ocre à l'apex alors que les ailes postérieures sont ocre ornementées de lignes noires et d'une ligne submarginale d'ocelles pupillés de bleu.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agrias_amydon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Erythroxylon (Erythroxylaceae)[3].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Erythroxylon (Erythroxylaceae).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Agrias_amydon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrias amydon est présent  au Mexique, au Venezuela, en Équateur, en Colombie, en Bolivie, au Pérou, au Brésil, au Surinam et en Guyane [1],[5].
-Biotope
-Agrias amydon réside dans la forêt tropicale humide[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias amydon est présent  au Mexique, au Venezuela, en Équateur, en Colombie, en Bolivie, au Pérou, au Brésil, au Surinam et en Guyane ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias amydon réside dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_amydon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Agrias amydon, sur Wikimedia CommonsAgrias amydon, sur Wikispecies
 </t>
